--- a/Project/DataTable/Excel/Buff属性配置表.xlsx
+++ b/Project/DataTable/Excel/Buff属性配置表.xlsx
@@ -252,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -688,7 +688,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>512</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>485</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>485</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>733</v>
+        <v>74</v>
       </c>
       <c r="F14">
         <v>0</v>
